--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>Profile</t>
   </si>
@@ -111,21 +111,6 @@
   </si>
   <si>
     <t>null#2339-0, null#88365-2, null#87422-2</t>
-  </si>
-  <si>
-    <t>VA.MHV.bloodSugarA</t>
-  </si>
-  <si>
-    <t>VA MHV Blood Sugar Observation A</t>
-  </si>
-  <si>
-    <t>null#2339-0, null#2345-7</t>
-  </si>
-  <si>
-    <t>SNOMED CT#162549003</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>VA.MHV.bodyTemperature</t>
@@ -304,7 +289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -537,13 +522,13 @@
         <v>35</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
@@ -557,31 +542,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -592,10 +577,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -604,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>17</v>
@@ -627,10 +612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -639,16 +624,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>19</v>
@@ -662,10 +647,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -674,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -692,76 +677,6 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -277,10 +277,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>null#59408-5, null#2708-6</t>
+    <t>null#2708-6</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
@@ -80,7 +80,28 @@
     <t>VA MHV Blood Pressure Observation</t>
   </si>
   <si>
-    <t>null#55284-4, null#8716-3</t>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>VA.MHV.bloodSugar</t>
+  </si>
+  <si>
+    <t>VA MHV Blood Sugar Observation</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>null#2339-0, null#88365-2, null#87422-2</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
@@ -89,37 +110,16 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>VA.MHV.bloodSugar</t>
-  </si>
-  <si>
-    <t>VA MHV Blood Sugar Observation</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>null#2339-0, null#88365-2, null#87422-2</t>
-  </si>
-  <si>
     <t>VA.MHV.bodyTemperature</t>
   </si>
   <si>
     <t>VA MHV Body Temperature Observation</t>
   </si>
   <si>
-    <t>LOINC#8310-5</t>
+    <t>null#8310-5</t>
   </si>
   <si>
     <t>VA.MHV.bodyWeight</t>
@@ -128,7 +128,7 @@
     <t>VA MHV BodyWeight Observation</t>
   </si>
   <si>
-    <t>LOINC#29463-7</t>
+    <t>null#29463-7</t>
   </si>
   <si>
     <t>VA.MHV.heartRate</t>
@@ -382,13 +382,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>19</v>
@@ -414,7 +414,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
@@ -423,16 +423,16 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -458,42 +458,42 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="F6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="G6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
+      <c r="H6" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>26</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>19</v>
@@ -522,7 +522,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>17</v>
@@ -557,7 +557,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>17</v>
@@ -627,13 +627,13 @@
         <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>19</v>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>null#2708-6</t>
+    <t>null#2708-6, null#59408-5</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
@@ -80,7 +80,7 @@
     <t>VA MHV Blood Pressure Observation</t>
   </si>
   <si>
-    <t>null#85354-9</t>
+    <t>null#85354-9, null#55284-4, null#8716-3</t>
   </si>
   <si>
     <t>optional</t>
